--- a/Validation/ModelReaderTesting.xlsx
+++ b/Validation/ModelReaderTesting.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rringuet\Kamodo_Jan2023\Kamodo\Validation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C905C49-DB6E-4B6E-8FE0-9EB0FF1D1E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-29448" yWindow="-1812" windowWidth="19812" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="65">
   <si>
     <t>Model</t>
   </si>
@@ -151,89 +160,94 @@
     <t>MARBLE</t>
   </si>
   <si>
-    <t>OpenGGCM_mag</t>
-  </si>
-  <si>
     <t>GSE-car</t>
   </si>
   <si>
     <t>Lutz</t>
   </si>
   <si>
-    <t>File converter needs to produce files with one timestep per file. Done last.</t>
-  </si>
-  <si>
-    <t>SuperDARN_df</t>
-  </si>
-  <si>
     <t>0, 1</t>
   </si>
   <si>
-    <t>SuperDARN_ea</t>
-  </si>
-  <si>
     <t>SWMF_IE</t>
   </si>
   <si>
-    <t>SWMF_mag</t>
-  </si>
-  <si>
     <t>GSM-car</t>
   </si>
   <si>
-    <t>(check later)</t>
-  </si>
-  <si>
     <t>new interpolator from Lutz</t>
   </si>
   <si>
-    <t>TIE-GCM</t>
-  </si>
-  <si>
     <t>1, 2</t>
   </si>
   <si>
     <t>GDZ-sph, MAG-sph</t>
   </si>
   <si>
-    <t>WACCM-X</t>
-  </si>
-  <si>
     <t>0, 2, 3</t>
   </si>
   <si>
-    <t>WAM-IPE</t>
+    <t>Weimer</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>SuperDARN_uni</t>
+  </si>
+  <si>
+    <t>SuperDARN_equ</t>
+  </si>
+  <si>
+    <t>OpenGGCM_GM</t>
+  </si>
+  <si>
+    <t>SWMF_GM</t>
+  </si>
+  <si>
+    <t>TIEGCM</t>
+  </si>
+  <si>
+    <t>WACCMX</t>
+  </si>
+  <si>
+    <t>WAMIPE</t>
+  </si>
+  <si>
+    <t>File converter only operates on CCMC side.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -247,62 +261,75 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -492,29 +519,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.5"/>
-    <col customWidth="1" min="3" max="3" width="13.0"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:36" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,12 +626,12 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>23</v>
@@ -664,7 +694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
@@ -729,7 +759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
@@ -794,7 +824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
@@ -859,7 +889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
@@ -914,7 +944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
@@ -982,7 +1012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
@@ -1047,23 +1077,31 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:36" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-    </row>
-    <row r="10">
+      <c r="V9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>24</v>
@@ -1075,60 +1113,60 @@
         <v>24</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>29</v>
@@ -1189,12 +1227,12 @@
       </c>
       <c r="V11" s="6"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>29</v>
@@ -1255,9 +1293,9 @@
       </c>
       <c r="V12" s="6"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>42</v>
@@ -1320,15 +1358,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>54</v>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>24</v>
@@ -1337,7 +1375,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>25</v>
@@ -1361,13 +1399,13 @@
         <v>24</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>24</v>
@@ -1385,18 +1423,18 @@
         <v>24</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>24</v>
@@ -1453,15 +1491,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>24</v>
@@ -1518,7 +1556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>63</v>
       </c>
@@ -1583,7 +1621,72 @@
         <v>34</v>
       </c>
     </row>
+    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>